--- a/data/fleet_foxes_V1_alt.xlsx
+++ b/data/fleet_foxes_V1_alt.xlsx
@@ -2,22 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RYAN/Desktop/Fleet Foxes Album/fleet_foxes/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8960" yWindow="460" windowWidth="32400" windowHeight="27360" tabRatio="500"/>
+    <workbookView xWindow="1300" yWindow="5420" windowWidth="32400" windowHeight="27360" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="96">
   <si>
     <t>artist</t>
   </si>
@@ -314,6 +317,12 @@
   <si>
     <t>Column Labels</t>
   </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>",</t>
+  </si>
 </sst>
 </file>
 
@@ -1098,11 +1107,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="106728320"/>
-        <c:axId val="106345648"/>
+        <c:axId val="-52706592"/>
+        <c:axId val="-52648160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106728320"/>
+        <c:axId val="-52706592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1144,7 +1153,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106345648"/>
+        <c:crossAx val="-52648160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1152,7 +1161,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106345648"/>
+        <c:axId val="-52648160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1202,7 +1211,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106728320"/>
+        <c:crossAx val="-52706592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1422,11 +1431,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="190649856"/>
-        <c:axId val="189538768"/>
+        <c:axId val="79633024"/>
+        <c:axId val="76244256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190649856"/>
+        <c:axId val="79633024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1468,7 +1477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189538768"/>
+        <c:crossAx val="76244256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1476,7 +1485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189538768"/>
+        <c:axId val="76244256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,7 +1535,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190649856"/>
+        <c:crossAx val="79633024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2693,11 +2702,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="248128752"/>
-        <c:axId val="244207808"/>
+        <c:axId val="-50504976"/>
+        <c:axId val="-50502928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="248128752"/>
+        <c:axId val="-50504976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2740,7 +2749,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244207808"/>
+        <c:crossAx val="-50502928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2748,7 +2757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244207808"/>
+        <c:axId val="-50502928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2798,7 +2807,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248128752"/>
+        <c:crossAx val="-50504976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3280,11 +3289,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248573744"/>
-        <c:axId val="249513264"/>
+        <c:axId val="78049472"/>
+        <c:axId val="78052032"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="248573744"/>
+        <c:axId val="78049472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3327,7 +3336,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249513264"/>
+        <c:crossAx val="78052032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3335,7 +3344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="249513264"/>
+        <c:axId val="78052032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3385,7 +3394,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248573744"/>
+        <c:crossAx val="78049472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7912,7 +7921,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:M25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisCol" showAll="0">
@@ -8084,6 +8093,139 @@
     <i t="grand">
       <x/>
     </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of artist" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="12">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="21">
+        <item x="13"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="18"/>
+        <item x="12"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="19"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
   </colItems>
   <dataFields count="1">
     <dataField name="Count of artist" fld="3" subtotal="count" baseField="0" baseItem="0"/>
@@ -8362,7 +8504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:L24"/>
     </sheetView>
   </sheetViews>
@@ -9079,6 +9221,720 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="7">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A3:B24">
+    <sortCondition ref="A4"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:B20">
+    <sortCondition descending="1" ref="B1:B20"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E1:E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="str">
+        <f>CONCATENATE(A1,B1,D1)</f>
+        <v>"Robin Pecknold",</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E20" si="0">CONCATENATE(A2,B2,D2)</f>
+        <v>"Skyler Skjelset",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>"Casey Wescott",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>"Andy Clausen",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>"Morgan Henderson",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>"Riley Mulherkar",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>"Willem De Koch",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>"Zubin Hensler",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>"Matthew Barrick",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>"Christian Wargo",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>"Christopher Icasiano",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>"Hannah Epperson",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>"Dave Eggar",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>"Jeremy Kittel",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Nicholas Cords",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>"Russell Durham",</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>"Neal Morgan",</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>"Brian Mcpherson",</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>"Mulatu Astatke",</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>"Pheonix Forte Choir",</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F259"/>
   <sheetViews>
